--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-partof</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-partof</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -214,7 +214,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/no-basis-Appointment)
+    <t xml:space="preserve">Reference(http://helsenorge.no/fhir/StructureDefinition/no-basis-Appointment)
 </t>
   </si>
   <si>
@@ -547,7 +547,7 @@
     <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-partof.xlsx
+++ b/StructureDefinition-no-basis-partof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
